--- a/docss/trend/lithuania/E_huntington.xlsx
+++ b/docss/trend/lithuania/E_huntington.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\lithuania\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Documents\IC3\ic3desarrollo\docss\trend\lithuania\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -239,7 +239,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1559,7 +1558,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1582,224 +1581,224 @@
       <c r="A2">
         <v>1999</v>
       </c>
-      <c r="B2" s="7">
-        <v>9.9627934396266937E-2</v>
-      </c>
-      <c r="C2" s="7">
-        <v>7.0698022842407227E-2</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0.12425931543111801</v>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.124</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2000</v>
       </c>
-      <c r="B3" s="7">
-        <v>0.14367845840752125</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0.19350052997469902</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.10648052766919136</v>
+      <c r="B3">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="C3">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.106</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2001</v>
       </c>
-      <c r="B4" s="7">
-        <v>5.5894652381539345E-2</v>
-      </c>
-      <c r="C4" s="7">
-        <v>6.7631542682647705E-2</v>
-      </c>
-      <c r="D4" s="7">
-        <v>3.946252167224884E-2</v>
+      <c r="B4">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C4">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D4">
+        <v>3.9E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2002</v>
       </c>
-      <c r="B5" s="7">
-        <v>0.10734404437243938</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="B5">
+        <v>0.107</v>
+      </c>
+      <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" s="7">
-        <v>0.18805036693811417</v>
+      <c r="D5">
+        <v>0.188</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2003</v>
       </c>
-      <c r="B6" s="7">
-        <v>0.20407654345035553</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.19825984165072441</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.22219737619161606</v>
+      <c r="B6">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.222</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2004</v>
       </c>
-      <c r="B7" s="7">
-        <v>6.4497997984290123E-2</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="B7">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" s="7">
-        <v>0.10262011922895908</v>
+      <c r="D7">
+        <v>0.10299999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2005</v>
       </c>
-      <c r="B8" s="7">
-        <v>9.8705967888236046E-2</v>
-      </c>
-      <c r="C8" s="7">
-        <v>5.9853103011846542E-2</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.11505016684532166</v>
+      <c r="B8">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.06</v>
+      </c>
+      <c r="D8">
+        <v>0.115</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2006</v>
       </c>
-      <c r="B9" s="7">
-        <v>0.26925933733582497</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0.25109905004501343</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.28712703660130501</v>
+      <c r="B9">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="C9">
+        <v>0.251</v>
+      </c>
+      <c r="D9">
+        <v>0.28699999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2007</v>
       </c>
-      <c r="B10" s="7">
-        <v>9.3757674098014832E-2</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0.13274476677179337</v>
-      </c>
-      <c r="D10" s="7">
-        <v>5.8033253997564316E-2</v>
+      <c r="B10">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C10">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="D10">
+        <v>5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2008</v>
       </c>
-      <c r="B11" s="7">
-        <v>0.2263493100181222</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0.19547469541430473</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0.23682556301355362</v>
+      <c r="B11">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="C11">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="D11">
+        <v>0.23699999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2009</v>
       </c>
-      <c r="B12" s="7">
-        <v>0.21728754416108131</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0.25839584693312645</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0.16907000541687012</v>
+      <c r="B12">
+        <v>0.217</v>
+      </c>
+      <c r="C12">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="D12">
+        <v>0.16900000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2010</v>
       </c>
-      <c r="B13" s="7">
-        <v>0.2300149779766798</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0.12247825413942337</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0.30574698746204376</v>
+      <c r="B13">
+        <v>0.23</v>
+      </c>
+      <c r="C13">
+        <v>0.122</v>
+      </c>
+      <c r="D13">
+        <v>0.30599999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2011</v>
       </c>
-      <c r="B14" s="7">
-        <v>7.1678818203508854E-2</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0.11346651241183281</v>
-      </c>
-      <c r="D14" s="7">
-        <v>4.4975150376558304E-2</v>
+      <c r="B14">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.113</v>
+      </c>
+      <c r="D14">
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2012</v>
       </c>
-      <c r="B15" s="7">
-        <v>8.7495012208819389E-2</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0.14297483861446381</v>
-      </c>
-      <c r="D15" s="7">
-        <v>5.5098585784435272E-2</v>
+      <c r="B15">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D15">
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2013</v>
       </c>
-      <c r="B16" s="7">
-        <v>0.2281948896124959</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0.20357228443026543</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0.24415962398052216</v>
+      <c r="B16">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="C16">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="D16">
+        <v>0.24399999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2014</v>
       </c>
-      <c r="B17" s="7">
-        <v>6.3503140583634377E-2</v>
-      </c>
-      <c r="C17" s="7">
-        <v>7.1062386035919189E-2</v>
-      </c>
-      <c r="D17" s="7">
-        <v>5.3213663399219513E-2</v>
+      <c r="B17">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="C17">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="D17">
+        <v>5.2999999999999999E-2</v>
       </c>
     </row>
   </sheetData>
